--- a/registro_entradas/2024-12-16.xlsx
+++ b/registro_entradas/2024-12-16.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:52:16</t>
+          <t>16:02:57</t>
         </is>
       </c>
     </row>

--- a/registro_entradas/2024-12-16.xlsx
+++ b/registro_entradas/2024-12-16.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>AREA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>HORA</t>
         </is>
@@ -445,21 +450,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Erik Cifuentes Sistemas</t>
+          <t>Geofrey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Logistica</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>2024-12-16</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16:02:57</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16:52:46</t>
         </is>
       </c>
     </row>
